--- a/biology/Zoologie/Bathysolea/Bathysolea.xlsx
+++ b/biology/Zoologie/Bathysolea/Bathysolea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bathysolea est un genre de poissons plats marins de la famille des Soleidae. Les espèces de ce genre vivent dans l'Atlantique est dans l'ouest de l'Océan Indien.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Bathysolea a été créé, initialement comme sous-genre de Solea, en 1916 par le biologiste marin français Louis Roule (1861-1942)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Bathysolea a été créé, initialement comme sous-genre de Solea, en 1916 par le biologiste marin français Louis Roule (1861-1942),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dans sa publication de 1916, Louis Roule indique que le sous-genre Bathysolea présente les deux particularités suivantes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dans sa publication de 1916, Louis Roule indique que le sous-genre Bathysolea présente les deux particularités suivantes :
 pectorales réduites et restreintes à un filament court sur chacun des deux côtés ;
 villosités céphaliques peu nombreuses, seulement assemblées en bandes qui contournent la bouche et les côtés de la tête.</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (22 juin 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (22 juin 2022) :
 Bathysolea lactea Roule, 1916
 Bathysolea lagarderae Quéro &amp; Desoutter, 1990
 Bathysolea polli Chabanaud, 1950
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Louis Roule, « Considérations sur les deux espèces abyssales du genre Solea dans l'Atlantique paléartique et sur le sous-genre nouveau Bathysolea », Bulletin du Muséum national d'histoire naturelle, Paris, Imprimerie nationale, vol. 22,‎ 1916, p. 8–10 (ISSN 1148-8425 et 2420-1901, OCLC 801819388, BNF 34428233, DOI 10.5962/BHL.PART.17123, lire en ligne)</t>
         </is>
